--- a/LR/Excel/Gold_LR.xlsx
+++ b/LR/Excel/Gold_LR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\STAT3013.-P12_Nhom4\LR\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AEA2685-63AA-4D5C-B67D-393EA27D359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E7C9DD-CDA2-43A3-825E-F20AA9FB205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,10 +59,10 @@
     <t>Predicted_Price</t>
   </si>
   <si>
-    <t>Index for the next 30 days</t>
+    <t>Index_next_30days</t>
   </si>
   <si>
-    <t>Adjusted R-squared</t>
+    <t>Adjusted_R_squared</t>
   </si>
 </sst>
 </file>
@@ -151,10 +150,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9416,8 +9415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9431,7 +9430,7 @@
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H66" si="1">0.4866*I4+1467.2</f>
+        <f t="shared" ref="H4:H31" si="1">0.4866*I4+1467.2</f>
         <v>2120.2172</v>
       </c>
       <c r="I4" s="6">
@@ -40496,7 +40495,7 @@
         <v>285</v>
       </c>
       <c r="G1284" s="6">
-        <f t="shared" ref="G1284:G1347" si="22">G1283+1</f>
+        <f t="shared" ref="G1284:G1340" si="22">G1283+1</f>
         <v>1283</v>
       </c>
     </row>
